--- a/excel_avancado_40/aula04/atividade03.xlsx
+++ b/excel_avancado_40/aula04/atividade03.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\excel_avancado_40\aula04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63FB7A61-F8D0-4936-B54B-DD57E330C029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1455D4CD-C725-47DE-B303-74DF99EF83CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4489EAED-C720-4017-BC21-1760108E7761}"/>
   </bookViews>
@@ -189,7 +189,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,15 +199,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -244,7 +235,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -562,7 +553,7 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -641,7 +632,7 @@
       <c r="B5">
         <v>44</v>
       </c>
-      <c r="C5" s="4"/>
+      <c r="C5" s="1"/>
       <c r="E5" t="s">
         <v>14</v>
       </c>
@@ -723,6 +714,10 @@
       <c r="D11">
         <v>0</v>
       </c>
+      <c r="E11" s="4" t="str">
+        <f>IF(OR(AND(B11&gt;=18,B11&lt;=65,C11="M",D11&gt;=60),AND(B11&gt;=18,B11&lt;=60,C11="F",D11&gt;=60)),"Apto","Inapto")</f>
+        <v>Inapto</v>
+      </c>
       <c r="G11" t="s">
         <v>28</v>
       </c>
@@ -746,6 +741,10 @@
       <c r="D12">
         <v>51</v>
       </c>
+      <c r="E12" s="4" t="str">
+        <f t="shared" ref="E12:E15" si="0">IF(OR(AND(B12&gt;=18,B12&lt;=65,C12="M",D12&gt;=60),AND(B12&gt;=18,B12&lt;=60,C12="F",D12&gt;=60)),"Apto","Inapto")</f>
+        <v>Inapto</v>
+      </c>
       <c r="G12" t="s">
         <v>31</v>
       </c>
@@ -769,6 +768,10 @@
       <c r="D13">
         <v>95</v>
       </c>
+      <c r="E13" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Apto</v>
+      </c>
       <c r="G13" t="s">
         <v>34</v>
       </c>
@@ -792,6 +795,10 @@
       <c r="D14">
         <v>100</v>
       </c>
+      <c r="E14" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Inapto</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -805,6 +812,10 @@
       </c>
       <c r="D15">
         <v>95</v>
+      </c>
+      <c r="E15" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Inapto</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -923,5 +934,6 @@
     <mergeCell ref="A17:E17"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/excel_avancado_40/aula04/atividade03.xlsx
+++ b/excel_avancado_40/aula04/atividade03.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\excel_avancado_40\aula04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1455D4CD-C725-47DE-B303-74DF99EF83CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23118DB9-CCF7-4099-92C1-14316052FA44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4489EAED-C720-4017-BC21-1760108E7761}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4489EAED-C720-4017-BC21-1760108E7761}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -20,17 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -189,7 +178,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,6 +191,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -223,10 +222,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -235,9 +235,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -552,16 +558,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1F3316A-4455-4A7A-B0C9-2357326C5738}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
@@ -602,7 +608,10 @@
       <c r="B3">
         <v>5</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="b">
+        <f>C19=IF(B3&lt;10,$F$2,IF(B3&lt;16,$F$3,IF(B3&lt;21,$F$4,IF(B3&lt;41,$F$5,IF(B3&lt;60,$F$6,$F$7)))))</f>
+        <v>0</v>
+      </c>
       <c r="E3" t="s">
         <v>8</v>
       </c>
@@ -617,7 +626,10 @@
       <c r="B4">
         <v>18</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="1" t="str">
+        <f>IF(B4&lt;10,$F$2,IF(B4&lt;16,$F$3,IF(B4&lt;21,$F$4,IF(B4&lt;40,$F$5,IF(B4&lt;60,$F$6,$F$7)))))</f>
+        <v>Jovem</v>
+      </c>
       <c r="E4" t="s">
         <v>11</v>
       </c>
@@ -632,7 +644,10 @@
       <c r="B5">
         <v>44</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1" t="str">
+        <f t="shared" ref="C5:C7" si="0">IF(B5&lt;10,$F$2,IF(B5&lt;16,$F$3,IF(B5&lt;21,$F$4,IF(B5&lt;40,$F$5,IF(B5&lt;60,$F$6,$F$7)))))</f>
+        <v>Meia idade</v>
+      </c>
       <c r="E5" t="s">
         <v>14</v>
       </c>
@@ -647,7 +662,10 @@
       <c r="B6">
         <v>95</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Idoso</v>
+      </c>
       <c r="E6" t="s">
         <v>17</v>
       </c>
@@ -662,7 +680,10 @@
       <c r="B7">
         <v>20</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Jovem</v>
+      </c>
       <c r="E7" t="s">
         <v>20</v>
       </c>
@@ -714,8 +735,8 @@
       <c r="D11">
         <v>0</v>
       </c>
-      <c r="E11" s="4" t="str">
-        <f>IF(OR(AND(B11&gt;=18,B11&lt;=65,C11="M",D11&gt;=60),AND(B11&gt;=18,B11&lt;=60,C11="F",D11&gt;=60)),"Apto","Inapto")</f>
+      <c r="E11" t="str">
+        <f>IF(OR(AND(B11&gt;=18,B11&lt;=65,C11="M",D11&gt;60),AND(B11&gt;=15,B11&lt;=60,C11="F",D11&gt;60)),"Apto","Inapto")</f>
         <v>Inapto</v>
       </c>
       <c r="G11" t="s">
@@ -741,8 +762,8 @@
       <c r="D12">
         <v>51</v>
       </c>
-      <c r="E12" s="4" t="str">
-        <f t="shared" ref="E12:E15" si="0">IF(OR(AND(B12&gt;=18,B12&lt;=65,C12="M",D12&gt;=60),AND(B12&gt;=18,B12&lt;=60,C12="F",D12&gt;=60)),"Apto","Inapto")</f>
+      <c r="E12" t="str">
+        <f t="shared" ref="E12:E15" si="1">IF(OR(AND(B12&gt;=18,B12&lt;=65,C12="M",D12&gt;60),AND(B12&gt;=15,B12&lt;=60,C12="F",D12&gt;60)),"Apto","Inapto")</f>
         <v>Inapto</v>
       </c>
       <c r="G12" t="s">
@@ -768,8 +789,8 @@
       <c r="D13">
         <v>95</v>
       </c>
-      <c r="E13" s="4" t="str">
-        <f t="shared" si="0"/>
+      <c r="E13" t="str">
+        <f t="shared" si="1"/>
         <v>Apto</v>
       </c>
       <c r="G13" t="s">
@@ -795,8 +816,8 @@
       <c r="D14">
         <v>100</v>
       </c>
-      <c r="E14" s="4" t="str">
-        <f t="shared" si="0"/>
+      <c r="E14" t="str">
+        <f t="shared" si="1"/>
         <v>Inapto</v>
       </c>
     </row>
@@ -813,8 +834,8 @@
       <c r="D15">
         <v>95</v>
       </c>
-      <c r="E15" s="4" t="str">
-        <f t="shared" si="0"/>
+      <c r="E15" t="str">
+        <f t="shared" si="1"/>
         <v>Inapto</v>
       </c>
     </row>
@@ -849,82 +870,181 @@
       <c r="A19" t="s">
         <v>43</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="4">
         <v>1000</v>
       </c>
-      <c r="C19" s="1"/>
+      <c r="C19" s="5">
+        <f>IF(B19&lt;1320,B19*7.5%,IF(B19&lt;2571.3,B19*9%,IF(B19&lt;3856.95,B19*12%,IF(B19&lt;7507.49,B19*14%,7507.49*14%))))</f>
+        <v>75</v>
+      </c>
+      <c r="D19" s="6">
+        <f>B19-C19</f>
+        <v>925</v>
+      </c>
+      <c r="E19" s="7" t="str">
+        <f>IF(D19&lt;=2112,"Isento",IF(D19&lt;2826.66, D19*7.5%,IF(D19&lt;3751.06, D19*15%, IF(D19&lt;4664.68, D19*22.5%, D19*27.5%))))</f>
+        <v>Isento</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>10</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="4">
         <v>2000</v>
       </c>
-      <c r="C20" s="1"/>
+      <c r="C20" s="5">
+        <f t="shared" ref="C20:C27" si="2">IF(B20&lt;1320,B20*7.5%,IF(B20&lt;2571.3,B20*9%,IF(B20&lt;3856.95,B20*12%,IF(B20&lt;7507.49,B20*14%,7507.49*14%))))</f>
+        <v>180</v>
+      </c>
+      <c r="D20" s="6">
+        <f t="shared" ref="D20:D27" si="3">B20-C20</f>
+        <v>1820</v>
+      </c>
+      <c r="E20" s="7" t="str">
+        <f t="shared" ref="E20:E27" si="4">IF(D20&lt;=2112,"Isento",IF(D20&lt;2826.66, D20*7.5%,IF(D20&lt;3751.06, D20*15%, IF(D20&lt;4664.68, D20*22.5%, D20*27.5%))))</f>
+        <v>Isento</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>44</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="4">
         <v>3000</v>
       </c>
-      <c r="C21" s="1"/>
+      <c r="C21" s="5">
+        <f t="shared" si="2"/>
+        <v>360</v>
+      </c>
+      <c r="D21" s="6">
+        <f t="shared" si="3"/>
+        <v>2640</v>
+      </c>
+      <c r="E21" s="7">
+        <f t="shared" si="4"/>
+        <v>198</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>7</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="4">
         <v>4000</v>
       </c>
-      <c r="C22" s="1"/>
+      <c r="C22" s="5">
+        <f t="shared" si="2"/>
+        <v>560</v>
+      </c>
+      <c r="D22" s="6">
+        <f t="shared" si="3"/>
+        <v>3440</v>
+      </c>
+      <c r="E22" s="7">
+        <f t="shared" si="4"/>
+        <v>516</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>45</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="4">
         <v>5000</v>
       </c>
-      <c r="C23" s="1"/>
+      <c r="C23" s="5">
+        <f t="shared" si="2"/>
+        <v>700.00000000000011</v>
+      </c>
+      <c r="D23" s="6">
+        <f t="shared" si="3"/>
+        <v>4300</v>
+      </c>
+      <c r="E23" s="7">
+        <f t="shared" si="4"/>
+        <v>967.5</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>46</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="4">
         <v>6000</v>
       </c>
-      <c r="C24" s="1"/>
+      <c r="C24" s="5">
+        <f t="shared" si="2"/>
+        <v>840.00000000000011</v>
+      </c>
+      <c r="D24" s="6">
+        <f t="shared" si="3"/>
+        <v>5160</v>
+      </c>
+      <c r="E24" s="7">
+        <f t="shared" si="4"/>
+        <v>1419.0000000000002</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>47</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="4">
         <v>7000</v>
       </c>
-      <c r="C25" s="1"/>
+      <c r="C25" s="5">
+        <f t="shared" si="2"/>
+        <v>980.00000000000011</v>
+      </c>
+      <c r="D25" s="6">
+        <f t="shared" si="3"/>
+        <v>6020</v>
+      </c>
+      <c r="E25" s="7">
+        <f t="shared" si="4"/>
+        <v>1655.5000000000002</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>48</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="4">
         <v>8000</v>
       </c>
-      <c r="C26" s="1"/>
+      <c r="C26" s="5">
+        <f t="shared" si="2"/>
+        <v>1051.0486000000001</v>
+      </c>
+      <c r="D26" s="6">
+        <f t="shared" si="3"/>
+        <v>6948.9513999999999</v>
+      </c>
+      <c r="E26" s="7">
+        <f t="shared" si="4"/>
+        <v>1910.9616350000001</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>19</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="4">
         <v>10000</v>
       </c>
-      <c r="C27" s="1"/>
+      <c r="C27" s="5">
+        <f t="shared" si="2"/>
+        <v>1051.0486000000001</v>
+      </c>
+      <c r="D27" s="6">
+        <f t="shared" si="3"/>
+        <v>8948.9513999999999</v>
+      </c>
+      <c r="E27" s="7">
+        <f t="shared" si="4"/>
+        <v>2460.9616350000001</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
